--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/you/git/arch8/design/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -12,9 +17,12 @@
     <sheet name="微操作信号表" sheetId="3" r:id="rId3"/>
     <sheet name="微指令控制操作对应表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="220">
   <si>
     <t>LD Ai, addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,70 +272,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>adr-&gt;ab-&gt;pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push PC+2, then addr -&gt; PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp+1-&gt;sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-&gt;ab, pch-&gt;muxb-&gt;db-&gt;m, sp-1-&gt;sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-&gt;ab, m-&gt;db-&gt;adrh, sp+1-&gt;sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-&gt;ab, m-&gt;db-&gt;adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-&gt;ab, ai-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;m, sp-1-&gt;sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp+1-&gt;sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-&gt;ab, m-&gt;db-&gt;ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr-&gt;ab m-&gt;db-&gt;a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-&gt;act, ai-&gt;muxa, cf-&gt;cin, a+b+cin-&gt;alu-&gt;muxb-&gt;db-&gt;ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7E-&gt;adrh, aj-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-&gt;ab, m-&gt;db-&gt;a, pc+1-&gt;pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-&gt;act, ai-&gt;muxa, a or b-&gt;alu-&gt;muxb-&gt;db-&gt;ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pc-&gt;ab, m-&gt;db-&gt;adrl, pc+1-&gt;pc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adr-&gt;ab-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push PC+2, then addr -&gt; PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp+1-&gt;sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp-&gt;ab, pch-&gt;muxb-&gt;db-&gt;m, sp-1-&gt;sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp-&gt;ab, m-&gt;db-&gt;adrh, sp+1-&gt;sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp-&gt;ab, m-&gt;db-&gt;adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp-&gt;ab, ai-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;m, sp-1-&gt;sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp+1-&gt;sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp-&gt;ab, m-&gt;db-&gt;ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adr-&gt;ab m-&gt;db-&gt;a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a-&gt;act, ai-&gt;muxa, cf-&gt;cin, a+b+cin-&gt;alu-&gt;muxb-&gt;db-&gt;ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7E-&gt;adrh, aj-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-&gt;ab, m-&gt;db-&gt;a, pc+1-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a-&gt;act, ai-&gt;muxa, a or b-&gt;alu-&gt;muxb-&gt;db-&gt;ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-&gt;ab, m-&gt;db-&gt;adrl, pc+1-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adr-&gt;ab, m-&gt;db-&gt;tmp, 0-&gt;a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,6 +580,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ahs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7E-&gt;adrh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址总线输入选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxc(0:1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000-&gt;pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc+1-&gt;pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_load输入选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pld(0:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZF=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZF=0 and NF=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpc_load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwrx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据总线输入选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxb(0:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阻态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mux_cin0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mux_cin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pld0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pld1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pld2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxb0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr_load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr_load from db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrh_load from db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr_load from ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <rPh sb="0" eb="1">
+      <t>bei'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_dec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>adrh_load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,243 +911,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ahs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7E-&gt;adrh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址总线输入选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxc(0:1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0000-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc+1-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_load输入选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pld(0:2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZF=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZF=0 and NF=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mpc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mpc_load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwrx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读存储器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写存储器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据总线输入选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxb(0:2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adrh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阻态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mux_cin0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mux_cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxc0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pld0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pld1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pld2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxb0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>muxb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_set</t>
+    <t>a&gt;&gt;1-&gt;a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +932,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -856,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +976,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,13 +1273,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="49.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="49.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,19 +1448,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="67.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="67.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -1499,12 +1613,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
@@ -1514,12 +1628,12 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -1527,22 +1641,22 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1550,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -1558,12 +1672,12 @@
         <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -1571,17 +1685,17 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1589,12 +1703,12 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1607,17 +1721,17 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
@@ -1650,7 +1764,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -1683,7 +1797,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
@@ -1691,17 +1805,17 @@
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1712,69 +1826,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E63"/>
+  <dimension ref="B1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="21.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1782,13 +1896,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1796,205 +1910,205 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>145</v>
+      <c r="C13" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="5" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="5" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2002,313 +2116,360 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="3" t="s">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+      <c r="D40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="C44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+      <c r="E49" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E50" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="3" t="s">
+      <c r="C60" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+      <c r="E60" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="E62" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3" t="s">
+      <c r="E64" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E63" s="3">
-        <v>101</v>
+      <c r="E65" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="8"/>
+      <c r="C68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B55:B56"/>
+  <mergeCells count="19">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,282 +2478,6465 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D34"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="51.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="N1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="J2" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="K2" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="L2" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="M2" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="N2" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="O2" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="P2" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="Q2" s="4">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4">
+        <v>16</v>
+      </c>
+      <c r="T2" s="4">
+        <v>17</v>
+      </c>
+      <c r="U2" s="4">
+        <v>18</v>
+      </c>
+      <c r="V2" s="4">
+        <v>19</v>
+      </c>
+      <c r="W2" s="4">
+        <v>20</v>
+      </c>
+      <c r="X2" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>196</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1</v>
+      </c>
+      <c r="X32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4">
+        <v>1</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+      <c r="T45" s="4">
+        <v>1</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
+        <v>0</v>
+      </c>
+      <c r="T46" s="4">
+        <v>1</v>
+      </c>
+      <c r="U46" s="4">
+        <v>0</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="T47" s="4">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1</v>
+      </c>
+      <c r="V47" s="4">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4">
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
+        <v>1</v>
+      </c>
+      <c r="X52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <v>1</v>
+      </c>
+      <c r="V54" s="4">
+        <v>1</v>
+      </c>
+      <c r="W54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>1</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <v>1</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <v>1</v>
+      </c>
+      <c r="X55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
+        <v>1</v>
+      </c>
+      <c r="T56" s="4">
+        <v>1</v>
+      </c>
+      <c r="U56" s="4">
+        <v>1</v>
+      </c>
+      <c r="V56" s="4">
+        <v>1</v>
+      </c>
+      <c r="W56" s="4">
+        <v>1</v>
+      </c>
+      <c r="X56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
+        <v>1</v>
+      </c>
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0</v>
+      </c>
+      <c r="V58" s="4">
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0</v>
+      </c>
+      <c r="X58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>1</v>
+      </c>
+      <c r="R59" s="4">
+        <v>1</v>
+      </c>
+      <c r="S59" s="4">
+        <v>1</v>
+      </c>
+      <c r="T59" s="4">
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <v>1</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>1</v>
+      </c>
+      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
+        <v>1</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="V61" s="4">
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <v>0</v>
+      </c>
+      <c r="X61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>1</v>
+      </c>
+      <c r="R62" s="4">
+        <v>1</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+      <c r="T62" s="4">
+        <v>1</v>
+      </c>
+      <c r="U62" s="4">
+        <v>0</v>
+      </c>
+      <c r="V62" s="4">
+        <v>1</v>
+      </c>
+      <c r="W62" s="4">
+        <v>0</v>
+      </c>
+      <c r="X62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>1</v>
+      </c>
+      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4">
+        <v>1</v>
+      </c>
+      <c r="T63" s="4">
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
+      <c r="W63" s="4">
+        <v>1</v>
+      </c>
+      <c r="X63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>1</v>
+      </c>
+      <c r="R64" s="4">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4">
+        <v>1</v>
+      </c>
+      <c r="T64" s="4">
+        <v>1</v>
+      </c>
+      <c r="U64" s="4">
+        <v>1</v>
+      </c>
+      <c r="V64" s="4">
+        <v>0</v>
+      </c>
+      <c r="W64" s="4">
+        <v>1</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+      <c r="T66" s="4">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4">
+        <v>0</v>
+      </c>
+      <c r="X66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>1</v>
+      </c>
+      <c r="R67" s="4">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <v>1</v>
+      </c>
+      <c r="V67" s="4">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <v>1</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4">
+        <v>1</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
+      <c r="T68" s="4">
+        <v>1</v>
+      </c>
+      <c r="U68" s="4">
+        <v>1</v>
+      </c>
+      <c r="V68" s="4">
+        <v>1</v>
+      </c>
+      <c r="W68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4">
+        <v>1</v>
+      </c>
+      <c r="V69" s="4">
+        <v>1</v>
+      </c>
+      <c r="W69" s="4">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4">
+        <v>1</v>
+      </c>
+      <c r="U70" s="4">
+        <v>1</v>
+      </c>
+      <c r="V70" s="4">
+        <v>1</v>
+      </c>
+      <c r="W70" s="4">
+        <v>1</v>
+      </c>
+      <c r="X70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4">
+        <v>1</v>
+      </c>
+      <c r="S71" s="4">
+        <v>1</v>
+      </c>
+      <c r="T71" s="4">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4">
+        <v>1</v>
+      </c>
+      <c r="V71" s="4">
+        <v>1</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1</v>
+      </c>
+      <c r="X71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>1</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1</v>
+      </c>
+      <c r="S74" s="4">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4">
+        <v>1</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+      <c r="W74" s="4">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
+        <v>1</v>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+      <c r="W75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>1</v>
+      </c>
+      <c r="R76" s="4">
+        <v>1</v>
+      </c>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+      <c r="T76" s="4">
+        <v>1</v>
+      </c>
+      <c r="U76" s="4">
+        <v>1</v>
+      </c>
+      <c r="V76" s="4">
+        <v>1</v>
+      </c>
+      <c r="W76" s="4">
+        <v>1</v>
+      </c>
+      <c r="X76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>1</v>
+      </c>
+      <c r="R77" s="4">
+        <v>0</v>
+      </c>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <v>1</v>
+      </c>
+      <c r="U77" s="4">
+        <v>1</v>
+      </c>
+      <c r="V77" s="4">
+        <v>1</v>
+      </c>
+      <c r="W77" s="4">
+        <v>1</v>
+      </c>
+      <c r="X77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>1</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1</v>
+      </c>
+      <c r="T78" s="4">
+        <v>1</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1</v>
+      </c>
+      <c r="V78" s="4">
+        <v>1</v>
+      </c>
+      <c r="W78" s="4">
+        <v>1</v>
+      </c>
+      <c r="X78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4">
+        <v>1</v>
+      </c>
+      <c r="S80" s="4">
+        <v>1</v>
+      </c>
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+      <c r="U80" s="4">
+        <v>1</v>
+      </c>
+      <c r="V80" s="4">
+        <v>1</v>
+      </c>
+      <c r="W80" s="4">
+        <v>1</v>
+      </c>
+      <c r="X80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>1</v>
+      </c>
+      <c r="R81" s="4">
+        <v>1</v>
+      </c>
+      <c r="S81" s="4">
+        <v>1</v>
+      </c>
+      <c r="T81" s="4">
+        <v>1</v>
+      </c>
+      <c r="U81" s="4">
+        <v>1</v>
+      </c>
+      <c r="V81" s="4">
+        <v>1</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1</v>
+      </c>
+      <c r="X81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>1</v>
+      </c>
+      <c r="R82" s="4">
+        <v>1</v>
+      </c>
+      <c r="S82" s="4">
+        <v>1</v>
+      </c>
+      <c r="T82" s="4">
+        <v>1</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="W82" s="4">
+        <v>1</v>
+      </c>
+      <c r="X82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA82" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/you/git/arch8/design/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -19,11 +14,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -918,7 +913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -961,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,6 +978,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,13 +1271,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="49.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="49.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,15 +1450,15 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="67.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="67.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -1828,18 +1826,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="21.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
@@ -1857,7 +1855,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1871,7 +1869,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1883,7 +1881,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
@@ -1923,7 +1921,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1937,7 +1935,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
@@ -1949,10 +1947,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1963,8 +1961,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>105</v>
       </c>
@@ -1973,10 +1971,10 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1987,8 +1985,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
         <v>108</v>
       </c>
@@ -1997,8 +1995,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3" t="s">
         <v>109</v>
       </c>
@@ -2007,8 +2005,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3" t="s">
         <v>110</v>
       </c>
@@ -2017,8 +2015,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
         <v>111</v>
       </c>
@@ -2027,8 +2025,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
         <v>112</v>
       </c>
@@ -2037,8 +2035,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
@@ -2047,8 +2045,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
@@ -2057,10 +2055,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D25" s="3">
@@ -2071,8 +2069,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3" t="s">
         <v>125</v>
       </c>
@@ -2081,8 +2079,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3" t="s">
         <v>127</v>
       </c>
@@ -2091,8 +2089,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3">
         <v>1</v>
       </c>
@@ -2130,10 +2128,10 @@
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2144,8 +2142,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
         <v>205</v>
       </c>
@@ -2154,8 +2152,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4" t="s">
         <v>204</v>
       </c>
@@ -2164,8 +2162,8 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3" t="s">
         <v>210</v>
       </c>
@@ -2174,7 +2172,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
         <v>137</v>
       </c>
@@ -2186,10 +2184,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2200,8 +2198,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="3" t="s">
         <v>136</v>
       </c>
@@ -2210,8 +2208,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3" t="s">
         <v>145</v>
       </c>
@@ -2220,8 +2218,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="3" t="s">
         <v>114</v>
       </c>
@@ -2230,7 +2228,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2244,7 +2242,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
         <v>148</v>
       </c>
@@ -2256,10 +2254,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D48" s="3">
@@ -2270,8 +2268,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="3" t="s">
         <v>153</v>
       </c>
@@ -2280,8 +2278,8 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
         <v>154</v>
       </c>
@@ -2290,8 +2288,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="3" t="s">
         <v>155</v>
       </c>
@@ -2300,8 +2298,8 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="3" t="s">
         <v>156</v>
       </c>
@@ -2310,8 +2308,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="3">
         <v>1</v>
       </c>
@@ -2334,7 +2332,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -2348,7 +2346,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="3" t="s">
         <v>163</v>
       </c>
@@ -2360,10 +2358,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -2374,8 +2372,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="3" t="s">
         <v>169</v>
       </c>
@@ -2384,8 +2382,8 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="3" t="s">
         <v>170</v>
       </c>
@@ -2394,8 +2392,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
         <v>171</v>
       </c>
@@ -2404,8 +2402,8 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="3" t="s">
         <v>172</v>
       </c>
@@ -2414,8 +2412,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="3" t="s">
         <v>173</v>
       </c>
@@ -2424,7 +2422,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -2438,7 +2436,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="3" t="s">
         <v>214</v>
       </c>
@@ -2451,11 +2449,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
@@ -2470,6 +2463,11 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,46 +2476,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="51.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="51.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3"/>
     <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.83203125" style="3"/>
-    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.875" style="3"/>
+    <col min="16" max="16" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4.875" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.625" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.83203125" style="3"/>
+    <col min="32" max="34" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.875" style="8" customWidth="1"/>
+    <col min="37" max="37" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>179</v>
@@ -2534,9 +2533,6 @@
       <c r="F1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
@@ -2618,8 +2614,11 @@
       <c r="AH1" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>178</v>
@@ -2636,7 +2635,7 @@
       <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>4</v>
       </c>
       <c r="H2" s="4">
@@ -2720,8 +2719,11 @@
       <c r="AH2" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>180</v>
@@ -2738,7 +2740,7 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -2822,8 +2824,11 @@
       <c r="AH3" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2836,7 +2841,7 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="3">
@@ -2920,11 +2925,14 @@
       <c r="AH4" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2940,7 +2948,7 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -3024,11 +3032,14 @@
       <c r="AH6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
@@ -3044,7 +3055,7 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -3128,8 +3139,11 @@
       <c r="AH8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3145,7 +3159,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="4">
@@ -3229,8 +3243,11 @@
       <c r="AH9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3246,7 +3263,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>1</v>
       </c>
       <c r="H10" s="4">
@@ -3330,11 +3347,14 @@
       <c r="AH10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3370,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="4">
@@ -3434,8 +3454,11 @@
       <c r="AH12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3451,7 +3474,7 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="4">
@@ -3535,8 +3558,11 @@
       <c r="AH13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -3552,7 +3578,7 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="4">
@@ -3636,11 +3662,14 @@
       <c r="AH14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
@@ -3656,7 +3685,7 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="4">
@@ -3740,11 +3769,14 @@
       <c r="AH16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3760,7 +3792,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="4">
@@ -3844,8 +3876,11 @@
       <c r="AH18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3861,7 +3896,7 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="4">
@@ -3945,11 +3980,14 @@
       <c r="AH19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
@@ -3965,7 +4003,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="4">
@@ -4049,8 +4087,11 @@
       <c r="AH21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
@@ -4066,8 +4107,8 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
+      <c r="G22" s="8">
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -4150,11 +4191,14 @@
       <c r="AH22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,7 +4214,7 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="8">
         <v>1</v>
       </c>
       <c r="H24" s="4">
@@ -4254,8 +4298,11 @@
       <c r="AH24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4271,8 +4318,8 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
+      <c r="G25" s="8">
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -4355,11 +4402,14 @@
       <c r="AH25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4375,7 +4425,7 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="8">
         <v>1</v>
       </c>
       <c r="H27" s="4">
@@ -4459,8 +4509,11 @@
       <c r="AH27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -4476,7 +4529,7 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="8">
         <v>1</v>
       </c>
       <c r="H28" s="4">
@@ -4560,8 +4613,11 @@
       <c r="AH28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4633,7 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="8">
         <v>1</v>
       </c>
       <c r="H29" s="4">
@@ -4661,11 +4717,14 @@
       <c r="AH29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>45</v>
       </c>
@@ -4681,7 +4740,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="8">
         <v>1</v>
       </c>
       <c r="H31" s="4">
@@ -4765,8 +4824,11 @@
       <c r="AH31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4782,7 +4844,7 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32" s="4">
@@ -4866,8 +4928,11 @@
       <c r="AH32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
@@ -4883,8 +4948,8 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>0</v>
+      <c r="G33" s="8">
+        <v>1</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -4967,8 +5032,11 @@
       <c r="AH33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4984,7 +5052,7 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="8">
         <v>1</v>
       </c>
       <c r="H34" s="4">
@@ -5068,8 +5136,11 @@
       <c r="AH34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
@@ -5085,8 +5156,8 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="4">
-        <v>0</v>
+      <c r="G35" s="8">
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -5169,8 +5240,11 @@
       <c r="AH35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
@@ -5186,7 +5260,7 @@
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="8">
         <v>1</v>
       </c>
       <c r="H36" s="4">
@@ -5270,11 +5344,14 @@
       <c r="AH36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -5291,7 +5368,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="8">
         <v>1</v>
       </c>
       <c r="H38" s="4">
@@ -5375,8 +5452,11 @@
       <c r="AH38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -5393,7 +5473,7 @@
       <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="8">
         <v>1</v>
       </c>
       <c r="H39" s="4">
@@ -5477,8 +5557,11 @@
       <c r="AH39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
@@ -5494,7 +5577,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="8">
         <v>1</v>
       </c>
       <c r="H40" s="4">
@@ -5578,8 +5661,11 @@
       <c r="AH40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
@@ -5595,7 +5681,7 @@
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="8">
         <v>1</v>
       </c>
       <c r="H41" s="4">
@@ -5679,8 +5765,11 @@
       <c r="AH41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -5696,7 +5785,7 @@
       <c r="F42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="8">
         <v>1</v>
       </c>
       <c r="H42" s="4">
@@ -5780,11 +5869,14 @@
       <c r="AH42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
@@ -5800,7 +5892,7 @@
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="8">
         <v>1</v>
       </c>
       <c r="H44" s="4">
@@ -5884,8 +5976,11 @@
       <c r="AH44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
@@ -5901,7 +5996,7 @@
       <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="8">
         <v>1</v>
       </c>
       <c r="H45" s="4">
@@ -5985,8 +6080,11 @@
       <c r="AH45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
@@ -6002,7 +6100,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="8">
         <v>1</v>
       </c>
       <c r="H46" s="4">
@@ -6086,8 +6184,11 @@
       <c r="AH46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
@@ -6103,7 +6204,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="8">
         <v>1</v>
       </c>
       <c r="H47" s="4">
@@ -6187,11 +6288,14 @@
       <c r="AH47" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AK47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
@@ -6207,7 +6311,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="8">
         <v>1</v>
       </c>
       <c r="H49" s="4">
@@ -6291,11 +6395,14 @@
       <c r="AH49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
@@ -6311,7 +6418,7 @@
       <c r="F51" s="4">
         <v>1</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="8">
         <v>1</v>
       </c>
       <c r="H51" s="4">
@@ -6395,8 +6502,11 @@
       <c r="AH51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
@@ -6412,7 +6522,7 @@
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="8">
         <v>1</v>
       </c>
       <c r="H52" s="4">
@@ -6496,11 +6606,14 @@
       <c r="AH52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
@@ -6516,7 +6629,7 @@
       <c r="F54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="8">
         <v>1</v>
       </c>
       <c r="H54" s="4">
@@ -6600,8 +6713,11 @@
       <c r="AH54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
@@ -6617,7 +6733,7 @@
       <c r="F55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="8">
         <v>1</v>
       </c>
       <c r="H55" s="4">
@@ -6701,8 +6817,11 @@
       <c r="AH55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
@@ -6718,8 +6837,8 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="4">
-        <v>0</v>
+      <c r="G56" s="8">
+        <v>1</v>
       </c>
       <c r="H56" s="4">
         <v>1</v>
@@ -6802,11 +6921,14 @@
       <c r="AH56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>72</v>
       </c>
@@ -6822,7 +6944,7 @@
       <c r="F58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="8">
         <v>1</v>
       </c>
       <c r="H58" s="4">
@@ -6906,8 +7028,11 @@
       <c r="AH58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
@@ -6923,8 +7048,8 @@
       <c r="F59" s="4">
         <v>1</v>
       </c>
-      <c r="G59" s="4">
-        <v>0</v>
+      <c r="G59" s="8">
+        <v>1</v>
       </c>
       <c r="H59" s="4">
         <v>1</v>
@@ -7007,11 +7132,14 @@
       <c r="AH59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>37</v>
       </c>
@@ -7027,7 +7155,7 @@
       <c r="F61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="8">
         <v>1</v>
       </c>
       <c r="H61" s="4">
@@ -7111,8 +7239,11 @@
       <c r="AH61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>74</v>
       </c>
@@ -7128,7 +7259,7 @@
       <c r="F62" s="4">
         <v>1</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="8">
         <v>1</v>
       </c>
       <c r="H62" s="4">
@@ -7212,8 +7343,11 @@
       <c r="AH62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7229,7 +7363,7 @@
       <c r="F63" s="4">
         <v>0</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="8">
         <v>1</v>
       </c>
       <c r="H63" s="4">
@@ -7313,8 +7447,11 @@
       <c r="AH63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>76</v>
       </c>
@@ -7330,8 +7467,8 @@
       <c r="F64" s="4">
         <v>1</v>
       </c>
-      <c r="G64" s="4">
-        <v>0</v>
+      <c r="G64" s="8">
+        <v>1</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
@@ -7414,11 +7551,14 @@
       <c r="AH64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>45</v>
       </c>
@@ -7434,7 +7574,7 @@
       <c r="F66" s="4">
         <v>1</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="8">
         <v>1</v>
       </c>
       <c r="H66" s="4">
@@ -7518,8 +7658,11 @@
       <c r="AH66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -7535,7 +7678,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="8">
         <v>1</v>
       </c>
       <c r="H67" s="4">
@@ -7619,8 +7762,11 @@
       <c r="AH67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>55</v>
       </c>
@@ -7636,8 +7782,8 @@
       <c r="F68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" s="4">
-        <v>0</v>
+      <c r="G68" s="8">
+        <v>1</v>
       </c>
       <c r="H68" s="4">
         <v>1</v>
@@ -7720,8 +7866,11 @@
       <c r="AH68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
@@ -7737,7 +7886,7 @@
       <c r="F69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="8">
         <v>1</v>
       </c>
       <c r="H69" s="4">
@@ -7821,8 +7970,11 @@
       <c r="AH69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>57</v>
       </c>
@@ -7838,8 +7990,8 @@
       <c r="F70" s="4">
         <v>1</v>
       </c>
-      <c r="G70" s="4">
-        <v>0</v>
+      <c r="G70" s="8">
+        <v>1</v>
       </c>
       <c r="H70" s="4">
         <v>1</v>
@@ -7922,8 +8074,11 @@
       <c r="AH70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>77</v>
       </c>
@@ -7939,7 +8094,7 @@
       <c r="F71" s="4">
         <v>1</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="8">
         <v>1</v>
       </c>
       <c r="H71" s="4">
@@ -8023,11 +8178,14 @@
       <c r="AH71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>45</v>
       </c>
@@ -8043,7 +8201,7 @@
       <c r="F73" s="4">
         <v>1</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="8">
         <v>1</v>
       </c>
       <c r="H73" s="4">
@@ -8127,8 +8285,11 @@
       <c r="AH73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
@@ -8144,7 +8305,7 @@
       <c r="F74" s="4">
         <v>0</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="8">
         <v>1</v>
       </c>
       <c r="H74" s="4">
@@ -8228,8 +8389,11 @@
       <c r="AH74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>55</v>
       </c>
@@ -8245,8 +8409,8 @@
       <c r="F75" s="4">
         <v>1</v>
       </c>
-      <c r="G75" s="4">
-        <v>0</v>
+      <c r="G75" s="8">
+        <v>1</v>
       </c>
       <c r="H75" s="4">
         <v>1</v>
@@ -8329,8 +8493,11 @@
       <c r="AH75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -8346,7 +8513,7 @@
       <c r="F76" s="4">
         <v>0</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="8">
         <v>1</v>
       </c>
       <c r="H76" s="4">
@@ -8430,8 +8597,11 @@
       <c r="AH76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>57</v>
       </c>
@@ -8447,8 +8617,8 @@
       <c r="F77" s="4">
         <v>1</v>
       </c>
-      <c r="G77" s="4">
-        <v>0</v>
+      <c r="G77" s="8">
+        <v>1</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
@@ -8531,8 +8701,11 @@
       <c r="AH77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
@@ -8548,7 +8721,7 @@
       <c r="F78" s="4">
         <v>1</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="8">
         <v>1</v>
       </c>
       <c r="H78" s="4">
@@ -8632,11 +8805,14 @@
       <c r="AH78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
@@ -8652,7 +8828,7 @@
       <c r="F80" s="4">
         <v>1</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="8">
         <v>1</v>
       </c>
       <c r="H80" s="4">
@@ -8736,8 +8912,11 @@
       <c r="AH80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>219</v>
       </c>
@@ -8753,7 +8932,7 @@
       <c r="F81" s="4">
         <v>1</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="8">
         <v>1</v>
       </c>
       <c r="H81" s="4">
@@ -8837,8 +9016,11 @@
       <c r="AH81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
@@ -8854,8 +9036,8 @@
       <c r="F82" s="4">
         <v>1</v>
       </c>
-      <c r="G82" s="4">
-        <v>0</v>
+      <c r="G82" s="8">
+        <v>1</v>
       </c>
       <c r="H82" s="4">
         <v>1</v>
@@ -8936,11 +9118,15 @@
         <v>0</v>
       </c>
       <c r="AH82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -914,7 +914,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +931,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -956,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,6 +990,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1906,17 +1916,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2449,6 +2459,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
@@ -2463,14 +2478,10 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2478,9 +2489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="266">
   <si>
     <t>LD Ai, addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,18 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇编代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取指令微指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,18 +196,6 @@
   </si>
   <si>
     <t>pc-&gt;ab-&gt;adr, m-&gt;db-&gt;a, pc+1-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if CF then pc = pc + 2 + rel8, else pc = pc + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if not ZF then pc = pc + 2 + rel8, else pc = pc + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if not ZF and not CF then pc = pc + 2 + rel8, else pc = pc + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -907,6 +883,238 @@
   </si>
   <si>
     <t>a&gt;&gt;1-&gt;a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if CF then pc = pc + 3 + rel8, else pc = pc + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not ZF and not CF then pc = pc + 3 + rel8, else pc = pc + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not ZF then pc = pc + 3 + rel8, else pc = pc + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>指令码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>汇编代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV @Aj, Ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai -&gt; (7EJJ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7E-&gt;adrh, aj-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr-&gt;ab ai-&gt;db-&gt;m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adr-&gt;ab ai-&gt;muxa, b-&gt;alu-&gt;muxb-&gt;db-&gt;m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010101ii adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010100ii adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010110ii data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010111ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011000ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001ii data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011010ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010100ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010101ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010110ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==0&amp;xxx if iijj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==xxx if noii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==xxxxxx-1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100jjii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +1122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,6 +1150,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -963,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,6 +1214,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,174 +1504,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="49.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="23.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="78.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="49.375" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10011000</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>10001</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="12">
+        <v>10001000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>10010</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12">
+        <v>10010000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>10011</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="13">
+        <v>10011000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>10100</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>10101</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>10110</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1454,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F78"/>
+  <dimension ref="B2:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1473,10 +1994,10 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -1484,17 +2005,17 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -1502,20 +2023,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -1523,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -1531,299 +2052,312 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D59" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D71" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D72" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D78" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1836,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1852,51 +2386,51 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1904,13 +2438,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1918,205 +2452,205 @@
     </row>
     <row r="8" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="3" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E16" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="E17" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E18" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="5" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2124,13 +2658,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2138,320 +2672,320 @@
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="4" t="s">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E37" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+      <c r="C46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="9" t="s">
+      <c r="C48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-      <c r="C46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="E52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="5" t="s">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+      <c r="C58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E60" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="9"/>
-      <c r="C58" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="E62" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
+      <c r="E63" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E65" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
-        <v>212</v>
+      <c r="B67" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -2459,11 +2993,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
@@ -2478,6 +3007,11 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,11 +3021,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AK85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2530,109 +3064,109 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="AK1" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -2737,7 +3271,7 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -2761,22 +3295,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P3" s="4">
         <v>0</v>
@@ -2794,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -2809,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AC3" s="4">
         <v>0</v>
@@ -2827,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AK3" s="4">
         <v>0</v>
@@ -2862,79 +3396,79 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="AG4" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AK4" s="3">
         <v>1</v>
@@ -2945,7 +3479,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3052,7 +3586,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -3156,7 +3690,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3260,7 +3794,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -3367,7 +3901,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -3471,7 +4005,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -3575,7 +4109,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -3682,7 +4216,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3789,7 +4323,7 @@
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -3893,7 +4427,7 @@
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -3995,215 +4529,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
-        <v>1</v>
-      </c>
-      <c r="U21" s="4">
-        <v>1</v>
-      </c>
-      <c r="V21" s="4">
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9">
+        <v>1</v>
+      </c>
+      <c r="W21" s="9">
+        <v>1</v>
+      </c>
+      <c r="X21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <v>1</v>
-      </c>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="4">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1</v>
+      </c>
+      <c r="U22" s="9">
+        <v>1</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>1</v>
+      </c>
+      <c r="X22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
@@ -4211,7 +4745,7 @@
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -4315,7 +4849,7 @@
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -4422,10 +4956,10 @@
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -4449,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
@@ -4470,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
@@ -4479,13 +5013,13 @@
         <v>1</v>
       </c>
       <c r="U27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="4">
         <v>1</v>
       </c>
       <c r="W27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="4">
         <v>1</v>
@@ -4512,13 +5046,13 @@
         <v>1</v>
       </c>
       <c r="AF27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="4">
         <v>1</v>
@@ -4526,7 +5060,7 @@
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -4544,10 +5078,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -4559,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
@@ -4577,19 +5111,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="4">
         <v>1</v>
       </c>
       <c r="U28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="4">
         <v>1</v>
       </c>
       <c r="W28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="4">
         <v>1</v>
@@ -4616,131 +5150,131 @@
         <v>1</v>
       </c>
       <c r="AF28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
-        <v>1</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1</v>
-      </c>
-      <c r="V29" s="4">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4">
-        <v>1</v>
-      </c>
-      <c r="X29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="4">
-        <v>1</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>45</v>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -4785,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="4">
         <v>0</v>
@@ -4821,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="AD31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="4">
         <v>1</v>
@@ -4841,7 +5375,7 @@
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -4853,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -4901,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="4">
         <v>1</v>
@@ -4913,13 +5447,13 @@
         <v>1</v>
       </c>
       <c r="Z32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="4">
         <v>1</v>
@@ -4934,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AG32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="4">
         <v>1</v>
@@ -4944,124 +5478,23 @@
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4">
-        <v>1</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>1</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4">
-        <v>1</v>
-      </c>
-      <c r="U33" s="4">
-        <v>1</v>
-      </c>
-      <c r="V33" s="4">
-        <v>1</v>
-      </c>
-      <c r="W33" s="4">
-        <v>1</v>
-      </c>
-      <c r="X33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="4">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>56</v>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -5097,22 +5530,22 @@
         <v>1</v>
       </c>
       <c r="R34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="4">
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="4">
         <v>1</v>
       </c>
       <c r="W34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="4">
         <v>1</v>
@@ -5133,16 +5566,16 @@
         <v>1</v>
       </c>
       <c r="AD34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="4">
         <v>1</v>
       </c>
       <c r="AF34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="4">
         <v>1</v>
@@ -5153,7 +5586,7 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -5165,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -5177,22 +5610,22 @@
         <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="4">
         <v>1</v>
@@ -5201,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
@@ -5243,21 +5676,21 @@
         <v>1</v>
       </c>
       <c r="AF35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="4">
         <v>0</v>
       </c>
       <c r="AH35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>58</v>
+      <c r="B36" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -5281,22 +5714,22 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4">
         <v>1</v>
@@ -5308,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="4">
         <v>1</v>
@@ -5317,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="4">
         <v>1</v>
@@ -5332,10 +5765,10 @@
         <v>1</v>
       </c>
       <c r="AA36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="4">
         <v>1</v>
@@ -5347,25 +5780,125 @@
         <v>1</v>
       </c>
       <c r="AF36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>1</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
+        <v>1</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -5389,22 +5922,22 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
         <v>1</v>
@@ -5422,13 +5955,13 @@
         <v>1</v>
       </c>
       <c r="U38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4">
         <v>1</v>
       </c>
       <c r="W38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4">
         <v>1</v>
@@ -5449,28 +5982,27 @@
         <v>1</v>
       </c>
       <c r="AD38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="4">
         <v>1</v>
       </c>
       <c r="AF38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -5521,19 +6053,19 @@
         <v>1</v>
       </c>
       <c r="S39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4">
         <v>1</v>
       </c>
       <c r="U39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4">
         <v>1</v>
@@ -5545,16 +6077,16 @@
         <v>1</v>
       </c>
       <c r="AA39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="4">
         <v>1</v>
       </c>
       <c r="AD39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="4">
         <v>1</v>
@@ -5573,112 +6105,12 @@
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <v>0</v>
-      </c>
-      <c r="V40" s="4">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4">
-        <v>1</v>
-      </c>
-      <c r="X40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="4">
-        <v>1</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5726,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4">
         <v>1</v>
@@ -5738,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="4">
         <v>1</v>
@@ -5762,27 +6194,28 @@
         <v>1</v>
       </c>
       <c r="AD41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="4">
         <v>1</v>
       </c>
       <c r="AG41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -5833,19 +6266,19 @@
         <v>1</v>
       </c>
       <c r="S42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="4">
         <v>1</v>
       </c>
       <c r="U42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="4">
         <v>1</v>
@@ -5854,19 +6287,19 @@
         <v>1</v>
       </c>
       <c r="Z42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="4">
         <v>1</v>
       </c>
       <c r="AD42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="4">
         <v>1</v>
@@ -5885,11 +6318,112 @@
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -5946,19 +6480,19 @@
         <v>1</v>
       </c>
       <c r="U44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="4">
         <v>1</v>
       </c>
       <c r="X44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="4">
         <v>1</v>
@@ -5976,16 +6510,16 @@
         <v>1</v>
       </c>
       <c r="AE44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="4">
         <v>1</v>
       </c>
       <c r="AG44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="4">
         <v>1</v>
@@ -5993,7 +6527,7 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -6041,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="4">
         <v>1</v>
@@ -6050,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="4">
         <v>0</v>
@@ -6062,22 +6596,22 @@
         <v>1</v>
       </c>
       <c r="Y45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="4">
         <v>1</v>
       </c>
       <c r="AD45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="4">
         <v>1</v>
@@ -6096,112 +6630,11 @@
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
-        <v>1</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0</v>
-      </c>
-      <c r="T46" s="4">
-        <v>1</v>
-      </c>
-      <c r="U46" s="4">
-        <v>0</v>
-      </c>
-      <c r="V46" s="4">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4">
-        <v>1</v>
-      </c>
-      <c r="X46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="4">
-        <v>1</v>
-      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -6261,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="V47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="4">
         <v>1</v>
@@ -6270,16 +6703,16 @@
         <v>1</v>
       </c>
       <c r="Y47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="4">
         <v>1</v>
@@ -6304,11 +6737,112 @@
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+      <c r="T48" s="4">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <v>0</v>
+      </c>
+      <c r="W48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -6335,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4">
         <v>0</v>
@@ -6359,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="4">
         <v>1</v>
@@ -6374,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="X49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="4">
         <v>1</v>
@@ -6392,134 +6926,134 @@
         <v>1</v>
       </c>
       <c r="AD49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4">
+        <v>1</v>
+      </c>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4">
+        <v>0</v>
+      </c>
+      <c r="W50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0</v>
-      </c>
-      <c r="O51" s="4">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
-        <v>1</v>
-      </c>
-      <c r="S51" s="4">
-        <v>1</v>
-      </c>
-      <c r="T51" s="4">
-        <v>1</v>
-      </c>
-      <c r="U51" s="4">
-        <v>1</v>
-      </c>
-      <c r="V51" s="4">
-        <v>1</v>
-      </c>
-      <c r="W51" s="4">
-        <v>1</v>
-      </c>
-      <c r="X51" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="4">
-        <v>1</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -6540,13 +7074,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -6585,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="X52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="4">
         <v>1</v>
@@ -6603,19 +7137,19 @@
         <v>1</v>
       </c>
       <c r="AD52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="4">
         <v>1</v>
@@ -6626,7 +7160,7 @@
     </row>
     <row r="54" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -6644,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
@@ -6653,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
         <v>0</v>
@@ -6677,10 +7211,10 @@
         <v>1</v>
       </c>
       <c r="S54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="4">
         <v>1</v>
@@ -6695,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="4">
         <v>1</v>
@@ -6716,13 +7250,13 @@
         <v>1</v>
       </c>
       <c r="AF54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="4">
         <v>1</v>
@@ -6730,10 +7264,10 @@
     </row>
     <row r="55" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -6751,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
@@ -6787,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="U55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="4">
         <v>0</v>
@@ -6833,115 +7367,115 @@
       </c>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4">
-        <v>1</v>
-      </c>
-      <c r="M56" s="4">
-        <v>1</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="4">
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4">
-        <v>1</v>
-      </c>
-      <c r="S56" s="4">
-        <v>1</v>
-      </c>
-      <c r="T56" s="4">
-        <v>1</v>
-      </c>
-      <c r="U56" s="4">
-        <v>1</v>
-      </c>
-      <c r="V56" s="4">
-        <v>1</v>
-      </c>
-      <c r="W56" s="4">
-        <v>1</v>
-      </c>
-      <c r="X56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="4">
-        <v>0</v>
-      </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4">
+        <v>1</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
+      <c r="U57" s="4">
+        <v>1</v>
+      </c>
+      <c r="V57" s="4">
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -6998,13 +7532,13 @@
         <v>1</v>
       </c>
       <c r="U58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="4">
         <v>1</v>
@@ -7045,7 +7579,7 @@
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -7078,10 +7612,10 @@
         <v>1</v>
       </c>
       <c r="M59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="4">
         <v>0</v>
@@ -7152,10 +7686,10 @@
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -7200,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="R61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="4">
         <v>1</v>
@@ -7256,7 +7790,7 @@
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -7277,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
@@ -7286,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -7307,19 +7841,19 @@
         <v>1</v>
       </c>
       <c r="S62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="4">
         <v>1</v>
       </c>
       <c r="U62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="4">
         <v>1</v>
       </c>
       <c r="W62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="4">
         <v>1</v>
@@ -7340,131 +7874,30 @@
         <v>1</v>
       </c>
       <c r="AD62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE62" s="4">
         <v>1</v>
       </c>
       <c r="AF62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>0</v>
-      </c>
-      <c r="O63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="4">
-        <v>1</v>
-      </c>
-      <c r="R63" s="4">
-        <v>1</v>
-      </c>
-      <c r="S63" s="4">
-        <v>1</v>
-      </c>
-      <c r="T63" s="4">
-        <v>1</v>
-      </c>
-      <c r="U63" s="4">
-        <v>1</v>
-      </c>
-      <c r="V63" s="4">
-        <v>0</v>
-      </c>
-      <c r="W63" s="4">
-        <v>1</v>
-      </c>
-      <c r="X63" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="4">
-        <v>1</v>
-      </c>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -7488,22 +7921,22 @@
         <v>1</v>
       </c>
       <c r="J64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="4">
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="4">
         <v>1</v>
@@ -7512,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="R64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="4">
         <v>1</v>
@@ -7521,13 +7954,13 @@
         <v>1</v>
       </c>
       <c r="U64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" s="4">
         <v>1</v>
@@ -7548,42 +7981,143 @@
         <v>1</v>
       </c>
       <c r="AD64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4">
+        <v>0</v>
+      </c>
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>0</v>
+      </c>
+      <c r="X65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="8">
         <v>1</v>
@@ -7619,22 +8153,22 @@
         <v>1</v>
       </c>
       <c r="R66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="4">
         <v>1</v>
       </c>
       <c r="U66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="4">
         <v>1</v>
@@ -7675,7 +8209,7 @@
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -7687,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="8">
         <v>1</v>
@@ -7699,22 +8233,22 @@
         <v>1</v>
       </c>
       <c r="J67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="4">
         <v>1</v>
@@ -7735,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="4">
         <v>1</v>
@@ -7762,140 +8296,39 @@
         <v>1</v>
       </c>
       <c r="AE67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="4">
         <v>0</v>
       </c>
       <c r="AH67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1</v>
-      </c>
-      <c r="M68" s="4">
-        <v>1</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="4">
-        <v>1</v>
-      </c>
-      <c r="P68" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>1</v>
-      </c>
-      <c r="R68" s="4">
-        <v>1</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-      <c r="T68" s="4">
-        <v>1</v>
-      </c>
-      <c r="U68" s="4">
-        <v>1</v>
-      </c>
-      <c r="V68" s="4">
-        <v>1</v>
-      </c>
-      <c r="W68" s="4">
-        <v>1</v>
-      </c>
-      <c r="X68" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="4">
-        <v>0</v>
-      </c>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8">
         <v>1</v>
@@ -7931,22 +8364,22 @@
         <v>1</v>
       </c>
       <c r="R69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="4">
         <v>1</v>
       </c>
       <c r="U69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" s="4">
         <v>1</v>
       </c>
       <c r="W69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" s="4">
         <v>1</v>
@@ -7967,16 +8400,16 @@
         <v>1</v>
       </c>
       <c r="AD69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="4">
         <v>1</v>
       </c>
       <c r="AF69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH69" s="4">
         <v>1</v>
@@ -7987,7 +8420,7 @@
     </row>
     <row r="70" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -7999,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8">
         <v>1</v>
@@ -8011,22 +8444,22 @@
         <v>1</v>
       </c>
       <c r="J70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4">
         <v>0</v>
       </c>
       <c r="O70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="4">
         <v>1</v>
@@ -8035,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="R70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="4">
         <v>1</v>
@@ -8077,21 +8510,21 @@
         <v>1</v>
       </c>
       <c r="AF70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" s="4">
         <v>0</v>
       </c>
       <c r="AH70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>77</v>
+      <c r="B71" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -8115,22 +8548,22 @@
         <v>1</v>
       </c>
       <c r="J71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="4">
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="4">
         <v>1</v>
@@ -8142,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="S71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="4">
         <v>1</v>
@@ -8169,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="AB71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="4">
         <v>1</v>
@@ -8181,27 +8614,128 @@
         <v>1</v>
       </c>
       <c r="AF71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
+        <v>1</v>
+      </c>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+      <c r="U72" s="4">
+        <v>1</v>
+      </c>
+      <c r="V72" s="4">
+        <v>1</v>
+      </c>
+      <c r="W72" s="4">
+        <v>1</v>
+      </c>
+      <c r="X72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -8222,22 +8756,22 @@
         <v>1</v>
       </c>
       <c r="J73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="4">
         <v>1</v>
@@ -8249,19 +8783,19 @@
         <v>0</v>
       </c>
       <c r="S73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="4">
         <v>1</v>
       </c>
       <c r="U73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" s="4">
         <v>1</v>
       </c>
       <c r="W73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" s="4">
         <v>1</v>
@@ -8282,27 +8816,27 @@
         <v>1</v>
       </c>
       <c r="AD73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73" s="4">
         <v>1</v>
       </c>
       <c r="AF73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -8314,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="8">
         <v>1</v>
@@ -8380,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="AB74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="4">
         <v>1</v>
@@ -8395,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="AG74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH74" s="4">
         <v>1</v>
@@ -8405,124 +8939,23 @@
       </c>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B75" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-      <c r="G75" s="8">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4">
-        <v>1</v>
-      </c>
-      <c r="I75" s="4">
-        <v>1</v>
-      </c>
-      <c r="J75" s="4">
-        <v>1</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0</v>
-      </c>
-      <c r="L75" s="4">
-        <v>1</v>
-      </c>
-      <c r="M75" s="4">
-        <v>1</v>
-      </c>
-      <c r="N75" s="4">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4">
-        <v>1</v>
-      </c>
-      <c r="P75" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>1</v>
-      </c>
-      <c r="R75" s="4">
-        <v>1</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0</v>
-      </c>
-      <c r="T75" s="4">
-        <v>1</v>
-      </c>
-      <c r="U75" s="4">
-        <v>1</v>
-      </c>
-      <c r="V75" s="4">
-        <v>1</v>
-      </c>
-      <c r="W75" s="4">
-        <v>1</v>
-      </c>
-      <c r="X75" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF75" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="4">
-        <v>0</v>
-      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="8">
         <v>1</v>
@@ -8558,22 +8991,22 @@
         <v>1</v>
       </c>
       <c r="R76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="4">
         <v>1</v>
       </c>
       <c r="U76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="4">
         <v>1</v>
       </c>
       <c r="W76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76" s="4">
         <v>1</v>
@@ -8594,16 +9027,16 @@
         <v>1</v>
       </c>
       <c r="AD76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="4">
         <v>1</v>
       </c>
       <c r="AF76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH76" s="4">
         <v>1</v>
@@ -8614,7 +9047,7 @@
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -8626,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="8">
         <v>1</v>
@@ -8638,22 +9071,22 @@
         <v>1</v>
       </c>
       <c r="J77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" s="4">
         <v>0</v>
       </c>
       <c r="O77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="4">
         <v>1</v>
@@ -8662,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="R77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="4">
         <v>1</v>
@@ -8704,21 +9137,21 @@
         <v>1</v>
       </c>
       <c r="AF77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77" s="4">
         <v>0</v>
       </c>
       <c r="AH77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>78</v>
+      <c r="B78" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -8742,22 +9175,22 @@
         <v>1</v>
       </c>
       <c r="J78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" s="4">
         <v>1</v>
@@ -8769,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="S78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="4">
         <v>1</v>
@@ -8790,13 +9223,13 @@
         <v>1</v>
       </c>
       <c r="Z78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78" s="4">
         <v>1</v>
       </c>
       <c r="AB78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78" s="4">
         <v>1</v>
@@ -8808,27 +9241,128 @@
         <v>1</v>
       </c>
       <c r="AF78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1</v>
+      </c>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+      <c r="T79" s="4">
+        <v>1</v>
+      </c>
+      <c r="U79" s="4">
+        <v>1</v>
+      </c>
+      <c r="V79" s="4">
+        <v>1</v>
+      </c>
+      <c r="W79" s="4">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -8849,22 +9383,22 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="4">
         <v>0</v>
       </c>
       <c r="O80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="4">
         <v>1</v>
@@ -8873,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="R80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="4">
         <v>1</v>
@@ -8924,12 +9458,12 @@
         <v>0</v>
       </c>
       <c r="AK80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -9001,13 +9535,13 @@
         <v>1</v>
       </c>
       <c r="Z81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="4">
         <v>1</v>
       </c>
       <c r="AB81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="4">
         <v>1</v>
@@ -9032,106 +9566,317 @@
       </c>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82" s="8">
-        <v>1</v>
-      </c>
-      <c r="H82" s="4">
-        <v>1</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" s="4">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>1</v>
-      </c>
-      <c r="R82" s="4">
-        <v>1</v>
-      </c>
-      <c r="S82" s="4">
-        <v>1</v>
-      </c>
-      <c r="T82" s="4">
-        <v>1</v>
-      </c>
-      <c r="U82" s="4" t="s">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1</v>
+      </c>
+      <c r="R83" s="4">
+        <v>1</v>
+      </c>
+      <c r="S83" s="4">
+        <v>1</v>
+      </c>
+      <c r="T83" s="4">
+        <v>1</v>
+      </c>
+      <c r="U83" s="4">
+        <v>1</v>
+      </c>
+      <c r="V83" s="4">
+        <v>1</v>
+      </c>
+      <c r="W83" s="4">
+        <v>1</v>
+      </c>
+      <c r="X83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>1</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+      <c r="T84" s="4">
+        <v>1</v>
+      </c>
+      <c r="U84" s="4">
+        <v>1</v>
+      </c>
+      <c r="V84" s="4">
+        <v>1</v>
+      </c>
+      <c r="W84" s="4">
+        <v>1</v>
+      </c>
+      <c r="X84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4">
+        <v>1</v>
+      </c>
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="W85" s="4">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA85" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="V82" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="W82" s="4">
-        <v>1</v>
-      </c>
-      <c r="X82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z82" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB82" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF82" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="4">
+      <c r="AB85" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="4">
         <v>0</v>
       </c>
     </row>

--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="微操作信号表" sheetId="3" r:id="rId3"/>
     <sheet name="微指令控制操作对应表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="266">
   <si>
     <t>LD Ai, addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1183,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,6 +1223,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2402,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2413,7 +2416,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
@@ -2425,7 +2428,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
@@ -2465,7 +2468,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2479,7 +2482,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
@@ -2491,10 +2494,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2505,8 +2508,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>99</v>
       </c>
@@ -2515,10 +2518,10 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2529,8 +2532,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
         <v>102</v>
       </c>
@@ -2539,8 +2542,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
         <v>103</v>
       </c>
@@ -2549,8 +2552,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>104</v>
       </c>
@@ -2559,8 +2562,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
         <v>105</v>
       </c>
@@ -2569,8 +2572,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>106</v>
       </c>
@@ -2579,8 +2582,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
@@ -2589,8 +2592,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
@@ -2599,10 +2602,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="3">
@@ -2613,8 +2616,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>119</v>
       </c>
@@ -2623,8 +2626,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>121</v>
       </c>
@@ -2633,8 +2636,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3">
         <v>1</v>
       </c>
@@ -2672,10 +2675,10 @@
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="14" t="s">
         <v>197</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2686,8 +2689,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>199</v>
       </c>
@@ -2696,8 +2699,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
         <v>198</v>
       </c>
@@ -2706,8 +2709,8 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3" t="s">
         <v>204</v>
       </c>
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>131</v>
       </c>
@@ -2728,10 +2731,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2742,8 +2745,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="3" t="s">
         <v>130</v>
       </c>
@@ -2752,8 +2755,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
         <v>139</v>
       </c>
@@ -2762,8 +2765,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
         <v>108</v>
       </c>
@@ -2772,7 +2775,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2786,7 +2789,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="3" t="s">
         <v>142</v>
       </c>
@@ -2798,10 +2801,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D48" s="3">
@@ -2812,8 +2815,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="3" t="s">
         <v>147</v>
       </c>
@@ -2822,8 +2825,8 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="3" t="s">
         <v>148</v>
       </c>
@@ -2832,8 +2835,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="3" t="s">
         <v>149</v>
       </c>
@@ -2842,8 +2845,8 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="3" t="s">
         <v>150</v>
       </c>
@@ -2852,8 +2855,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="3">
         <v>1</v>
       </c>
@@ -2876,7 +2879,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -2890,7 +2893,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3" t="s">
         <v>157</v>
       </c>
@@ -2902,10 +2905,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="14" t="s">
         <v>162</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -2916,8 +2919,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="3" t="s">
         <v>163</v>
       </c>
@@ -2926,8 +2929,8 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="3" t="s">
         <v>164</v>
       </c>
@@ -2936,8 +2939,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="3" t="s">
         <v>165</v>
       </c>
@@ -2946,8 +2949,8 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="3" t="s">
         <v>166</v>
       </c>
@@ -2956,8 +2959,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="3" t="s">
         <v>167</v>
       </c>
@@ -2966,7 +2969,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -2980,7 +2983,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="3" t="s">
         <v>208</v>
       </c>
@@ -2993,6 +2996,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
@@ -3007,11 +3015,6 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3021,47 +3024,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK85"/>
+  <dimension ref="A1:AU85"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI22" sqref="AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="3"/>
     <col min="2" max="2" width="51.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="3"/>
-    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.875" style="3"/>
-    <col min="16" max="16" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.875" style="8" customWidth="1"/>
-    <col min="37" max="37" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="3"/>
+    <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="5.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="5.75" style="11" customWidth="1"/>
+    <col min="47" max="47" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>173</v>
@@ -3159,11 +3167,11 @@
       <c r="AH1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>172</v>
@@ -3264,11 +3272,11 @@
       <c r="AH2" s="4">
         <v>31</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AU2" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>174</v>
@@ -3369,11 +3377,11 @@
       <c r="AH3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AK3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -3470,14 +3478,14 @@
       <c r="AH4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AK4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AU4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3577,14 +3585,52 @@
       <c r="AH6" s="4">
         <v>1</v>
       </c>
-      <c r="AK6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI6" s="11" t="str">
+        <f>AH6&amp;AG6&amp;AF6&amp;AE6</f>
+        <v>1111</v>
+      </c>
+      <c r="AJ6" s="11" t="str">
+        <f>AD6&amp;AC6&amp;AB6&amp;AA6</f>
+        <v>0011</v>
+      </c>
+      <c r="AK6" s="11" t="str">
+        <f>Z6&amp;Y6&amp;X6&amp;W6</f>
+        <v>1110</v>
+      </c>
+      <c r="AL6" s="11" t="str">
+        <f>V6&amp;U6&amp;T6&amp;S6</f>
+        <v>1011</v>
+      </c>
+      <c r="AM6" s="11" t="str">
+        <f>R6&amp;Q6&amp;P6&amp;O6</f>
+        <v>1010</v>
+      </c>
+      <c r="AN6" s="11" t="str">
+        <f>N6&amp;M6&amp;L6&amp;K6</f>
+        <v>0000</v>
+      </c>
+      <c r="AO6" s="11" t="str">
+        <f>J6&amp;I6&amp;H6&amp;G6</f>
+        <v>0111</v>
+      </c>
+      <c r="AP6" s="11" t="str">
+        <f>F6&amp;E6&amp;D6&amp;C6</f>
+        <v>1111</v>
+      </c>
+      <c r="AQ6" s="11" t="str">
+        <f>BIN2HEX(AI6) &amp; BIN2HEX(AJ6) &amp; BIN2HEX(AK6) &amp; BIN2HEX(AL6) &amp; BIN2HEX(AM6) &amp; BIN2HEX(AN6) &amp; BIN2HEX(AO6) &amp; BIN2HEX(AP6)</f>
+        <v>F3EBA07F</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G7" s="11"/>
+      <c r="AI7" s="11"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3684,11 +3730,47 @@
       <c r="AH8" s="4">
         <v>1</v>
       </c>
-      <c r="AK8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI8" s="11" t="str">
+        <f t="shared" ref="AI8:AI71" si="0">AH8&amp;AG8&amp;AF8&amp;AE8</f>
+        <v>1111</v>
+      </c>
+      <c r="AJ8" s="11" t="str">
+        <f t="shared" ref="AJ8:AJ71" si="1">AD8&amp;AC8&amp;AB8&amp;AA8</f>
+        <v>0111</v>
+      </c>
+      <c r="AK8" s="11" t="str">
+        <f t="shared" ref="AK8:AK71" si="2">Z8&amp;Y8&amp;X8&amp;W8</f>
+        <v>1110</v>
+      </c>
+      <c r="AL8" s="11" t="str">
+        <f t="shared" ref="AL8:AL71" si="3">V8&amp;U8&amp;T8&amp;S8</f>
+        <v>1011</v>
+      </c>
+      <c r="AM8" s="11" t="str">
+        <f t="shared" ref="AM8:AM71" si="4">R8&amp;Q8&amp;P8&amp;O8</f>
+        <v>0110</v>
+      </c>
+      <c r="AN8" s="11" t="str">
+        <f t="shared" ref="AN8:AN71" si="5">N8&amp;M8&amp;L8&amp;K8</f>
+        <v>0000</v>
+      </c>
+      <c r="AO8" s="11" t="str">
+        <f t="shared" ref="AO8:AO71" si="6">J8&amp;I8&amp;H8&amp;G8</f>
+        <v>0111</v>
+      </c>
+      <c r="AP8" s="11" t="str">
+        <f t="shared" ref="AP8:AP71" si="7">F8&amp;E8&amp;D8&amp;C8</f>
+        <v>1111</v>
+      </c>
+      <c r="AQ8" s="11" t="str">
+        <f t="shared" ref="AQ7:AQ70" si="8">BIN2HEX(AI8) &amp; BIN2HEX(AJ8) &amp; BIN2HEX(AK8) &amp; BIN2HEX(AL8) &amp; BIN2HEX(AM8) &amp; BIN2HEX(AN8) &amp; BIN2HEX(AO8) &amp; BIN2HEX(AP8)</f>
+        <v>F7EB607F</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
@@ -3788,11 +3870,47 @@
       <c r="AH9" s="4">
         <v>1</v>
       </c>
-      <c r="AK9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM9" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP9" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ9" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EAE07F</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
@@ -3892,14 +4010,82 @@
       <c r="AH10" s="4">
         <v>1</v>
       </c>
-      <c r="AK10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL10" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ10" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F7E03F</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3999,11 +4185,47 @@
       <c r="AH12" s="4">
         <v>1</v>
       </c>
-      <c r="AK12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL12" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ12" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EB607F</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -4103,11 +4325,47 @@
       <c r="AH13" s="4">
         <v>1</v>
       </c>
-      <c r="AK13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ13" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EAE07F</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -4207,14 +4465,82 @@
       <c r="AH14" s="4">
         <v>0</v>
       </c>
-      <c r="AK14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="AJ14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL14" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN14" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO14" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ14" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>0FF7E17F</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL15" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4314,14 +4640,82 @@
       <c r="AH16" s="4">
         <v>1</v>
       </c>
-      <c r="AK16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ16" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EBE03F</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM17" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN17" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO17" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP17" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,11 +4815,47 @@
       <c r="AH18" s="4">
         <v>0</v>
       </c>
-      <c r="AK18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="AM18" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN18" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO18" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0101</v>
+      </c>
+      <c r="AP18" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ18" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFCE15F</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4525,14 +4955,86 @@
       <c r="AH19" s="4">
         <v>1</v>
       </c>
-      <c r="AK19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN19" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO19" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP19" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ19" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F7E03F</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN20" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO20" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP20" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4632,11 +5134,50 @@
       <c r="AH21" s="9">
         <v>0</v>
       </c>
-      <c r="AK21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK21" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL21" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="AM21" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN21" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO21" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0101</v>
+      </c>
+      <c r="AP21" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ21" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFCE15F</v>
+      </c>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>225</v>
       </c>
@@ -4736,14 +5277,85 @@
       <c r="AH22" s="9">
         <v>0</v>
       </c>
-      <c r="AK22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="AJ22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL22" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM22" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN22" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO22" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP22" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ22" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>0FF7E17F</v>
+      </c>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL23" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM23" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN23" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO23" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP23" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4843,11 +5455,47 @@
       <c r="AH24" s="4">
         <v>0</v>
       </c>
-      <c r="AK24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM24" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN24" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO24" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP24" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ24" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFE17E</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -4947,14 +5595,82 @@
       <c r="AH25" s="4">
         <v>0</v>
       </c>
-      <c r="AK25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM25" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN25" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0100</v>
+      </c>
+      <c r="AO25" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0001</v>
+      </c>
+      <c r="AP25" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ25" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFE41F</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK26" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM26" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN26" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO26" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP26" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
@@ -5054,11 +5770,47 @@
       <c r="AH27" s="4">
         <v>0</v>
       </c>
-      <c r="AK27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK27" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM27" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO27" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP27" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ27" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFE17E</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
@@ -5158,14 +5910,82 @@
       <c r="AH28" s="4">
         <v>0</v>
       </c>
-      <c r="AK28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM28" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN28" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0100</v>
+      </c>
+      <c r="AO28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0001</v>
+      </c>
+      <c r="AP28" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ28" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFE41F</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM29" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN29" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP29" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -5265,11 +6085,47 @@
       <c r="AH30" s="4">
         <v>1</v>
       </c>
-      <c r="AK30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK30" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM30" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP30" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ30" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FFEB607F</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -5369,11 +6225,47 @@
       <c r="AH31" s="4">
         <v>1</v>
       </c>
-      <c r="AK31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK31" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM31" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN31" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP31" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FFEAE07F</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5473,14 +6365,82 @@
       <c r="AH32" s="4">
         <v>1</v>
       </c>
-      <c r="AK32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="AK32" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0111</v>
+      </c>
+      <c r="AL32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM32" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN32" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP32" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ32" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FC77E07F</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK33" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL33" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM33" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN33" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO33" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP33" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>42</v>
       </c>
@@ -5580,11 +6540,47 @@
       <c r="AH34" s="4">
         <v>1</v>
       </c>
-      <c r="AK34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ34" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK34" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL34" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM34" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN34" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO34" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP34" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ34" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EA607E</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
@@ -5684,11 +6680,47 @@
       <c r="AH35" s="4">
         <v>1</v>
       </c>
-      <c r="AK35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="AJ35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL35" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN35" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO35" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP35" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>0111</v>
+      </c>
+      <c r="AQ35" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>BFFFE077</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>49</v>
       </c>
@@ -5788,11 +6820,47 @@
       <c r="AH36" s="4">
         <v>0</v>
       </c>
-      <c r="AK36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK36" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL36" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="AM36" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1111</v>
+      </c>
+      <c r="AN36" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="AO36" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>1111</v>
+      </c>
+      <c r="AP36" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ36" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFEFEFF</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -5892,11 +6960,47 @@
       <c r="AH37" s="4">
         <v>1</v>
       </c>
-      <c r="AK37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="AJ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL37" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM37" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN37" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO37" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP37" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>0011</v>
+      </c>
+      <c r="AQ37" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>9FFFE073</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
@@ -5996,11 +7100,47 @@
       <c r="AH38" s="4">
         <v>0</v>
       </c>
-      <c r="AK38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK38" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL38" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM38" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0111</v>
+      </c>
+      <c r="AN38" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0110</v>
+      </c>
+      <c r="AO38" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>1111</v>
+      </c>
+      <c r="AP38" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ38" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFF76FF</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -6100,14 +7240,82 @@
       <c r="AH39" s="4">
         <v>1</v>
       </c>
-      <c r="AK39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="AK39" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL39" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM39" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN39" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO39" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP39" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ39" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FCF7E07F</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL40" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM40" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN40" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO40" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP40" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -6208,11 +7416,47 @@
       <c r="AH41" s="4">
         <v>1</v>
       </c>
-      <c r="AK41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL41" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM41" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN41" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO41" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP41" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ41" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EB607F</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>35</v>
@@ -6313,11 +7557,47 @@
       <c r="AH42" s="4">
         <v>1</v>
       </c>
-      <c r="AK42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL42" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM42" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN42" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO42" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP42" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ42" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EAE07F</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -6417,11 +7697,47 @@
       <c r="AH43" s="4">
         <v>0</v>
       </c>
-      <c r="AK43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="AJ43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="AL43" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0011</v>
+      </c>
+      <c r="AM43" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN43" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO43" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP43" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ43" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>4FD3E07F</v>
+      </c>
+      <c r="AU43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
@@ -6521,11 +7837,47 @@
       <c r="AH44" s="4">
         <v>0</v>
       </c>
-      <c r="AK44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="AJ44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="AL44" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0011</v>
+      </c>
+      <c r="AM44" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN44" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO44" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP44" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ44" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>2FD3E07F</v>
+      </c>
+      <c r="AU44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
@@ -6625,14 +7977,82 @@
       <c r="AH45" s="4">
         <v>1</v>
       </c>
-      <c r="AK45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="AK45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0111</v>
+      </c>
+      <c r="AL45" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM45" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN45" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO45" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP45" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ45" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FC77E07F</v>
+      </c>
+      <c r="AU45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ46" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL46" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM46" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN46" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO46" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP46" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
@@ -6732,11 +8152,47 @@
       <c r="AH47" s="4">
         <v>1</v>
       </c>
-      <c r="AK47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+      <c r="AL47" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM47" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN47" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO47" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP47" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ47" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FFBFE07F</v>
+      </c>
+      <c r="AU47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
@@ -6836,11 +8292,47 @@
       <c r="AH48" s="4">
         <v>1</v>
       </c>
-      <c r="AK48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ48" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+      <c r="AL48" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0011</v>
+      </c>
+      <c r="AM48" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN48" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO48" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP48" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ48" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7B3607F</v>
+      </c>
+      <c r="AU48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>59</v>
       </c>
@@ -6940,11 +8432,47 @@
       <c r="AH49" s="4">
         <v>1</v>
       </c>
-      <c r="AK49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ49" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK49" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL49" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0010</v>
+      </c>
+      <c r="AM49" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN49" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO49" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP49" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ49" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F2E07F</v>
+      </c>
+      <c r="AU49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
@@ -7044,14 +8572,82 @@
       <c r="AH50" s="4">
         <v>1</v>
       </c>
-      <c r="AK50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ50" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="AK50" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0111</v>
+      </c>
+      <c r="AL50" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM50" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN50" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO50" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP50" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ50" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FC77E07F</v>
+      </c>
+      <c r="AU50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ51" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK51" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL51" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM51" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN51" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO51" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP51" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
@@ -7151,14 +8747,82 @@
       <c r="AH52" s="4">
         <v>0</v>
       </c>
-      <c r="AK52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="AJ52" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK52" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="AL52" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0011</v>
+      </c>
+      <c r="AM52" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN52" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO52" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP52" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ52" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>0FD3E17F</v>
+      </c>
+      <c r="AU52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ53" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK53" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL53" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM53" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN53" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO53" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP53" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
@@ -7258,11 +8922,47 @@
       <c r="AH54" s="4">
         <v>1</v>
       </c>
-      <c r="AK54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ54" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK54" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+      <c r="AL54" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM54" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN54" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO54" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP54" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ54" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>FFBFE07F</v>
+      </c>
+      <c r="AU54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -7362,14 +9062,82 @@
       <c r="AH55" s="4">
         <v>1</v>
       </c>
-      <c r="AK55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ55" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK55" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL55" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0011</v>
+      </c>
+      <c r="AM55" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN55" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO55" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP55" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ55" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F3E03F</v>
+      </c>
+      <c r="AU55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ56" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK56" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL56" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM56" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN56" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO56" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP56" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>65</v>
       </c>
@@ -7469,11 +9237,47 @@
       <c r="AH57" s="4">
         <v>0</v>
       </c>
-      <c r="AK57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ57" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK57" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL57" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="AM57" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN57" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0001</v>
+      </c>
+      <c r="AO57" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0101</v>
+      </c>
+      <c r="AP57" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ57" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFCE15F</v>
+      </c>
+      <c r="AU57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
@@ -7573,11 +9377,47 @@
       <c r="AH58" s="4">
         <v>1</v>
       </c>
-      <c r="AK58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ58" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK58" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL58" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM58" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN58" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO58" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP58" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ58" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F7E07E</v>
+      </c>
+      <c r="AU58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
@@ -7677,14 +9517,82 @@
       <c r="AH59" s="4">
         <v>0</v>
       </c>
-      <c r="AK59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ59" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK59" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL59" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM59" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN59" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="AO59" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP59" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ59" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFEE3F</v>
+      </c>
+      <c r="AU59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK60" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL60" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM60" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN60" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO60" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP60" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
@@ -7784,11 +9692,47 @@
       <c r="AH61" s="4">
         <v>1</v>
       </c>
-      <c r="AK61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK61" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL61" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM61" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN61" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO61" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP61" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ61" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EBE07E</v>
+      </c>
+      <c r="AU61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
@@ -7888,14 +9832,82 @@
       <c r="AH62" s="4">
         <v>0</v>
       </c>
-      <c r="AK62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK62" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL62" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM62" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN62" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0010</v>
+      </c>
+      <c r="AO62" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AP62" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ62" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>1FFFE23F</v>
+      </c>
+      <c r="AU62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK63" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL63" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM63" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN63" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO63" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP63" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>34</v>
       </c>
@@ -7995,11 +10007,47 @@
       <c r="AH64" s="4">
         <v>1</v>
       </c>
-      <c r="AK64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK64" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL64" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="AM64" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN64" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO64" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP64" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ64" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EB607F</v>
+      </c>
+      <c r="AU64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>68</v>
       </c>
@@ -8099,11 +10147,47 @@
       <c r="AH65" s="4">
         <v>1</v>
       </c>
-      <c r="AK65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ65" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK65" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL65" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM65" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN65" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO65" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP65" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ65" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EAE07F</v>
+      </c>
+      <c r="AU65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
@@ -8203,11 +10287,47 @@
       <c r="AH66" s="4">
         <v>1</v>
       </c>
-      <c r="AK66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ66" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK66" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL66" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM66" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN66" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO66" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP66" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>0011</v>
+      </c>
+      <c r="AQ66" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7F7E073</v>
+      </c>
+      <c r="AU66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
@@ -8307,14 +10427,82 @@
       <c r="AH67" s="4">
         <v>0</v>
       </c>
-      <c r="AK67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI67" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="AJ67" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK67" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL67" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0111</v>
+      </c>
+      <c r="AM67" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1111</v>
+      </c>
+      <c r="AN67" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="AO67" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>1111</v>
+      </c>
+      <c r="AP67" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ67" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>0FF7FEFF</v>
+      </c>
+      <c r="AU67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI68" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ68" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK68" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL68" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM68" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN68" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO68" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP68" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>42</v>
       </c>
@@ -8414,11 +10602,47 @@
       <c r="AH69" s="4">
         <v>1</v>
       </c>
-      <c r="AK69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI69" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ69" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="AK69" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="AL69" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="AM69" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0110</v>
+      </c>
+      <c r="AN69" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO69" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP69" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ69" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>F7EA607E</v>
+      </c>
+      <c r="AU69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
@@ -8518,11 +10742,47 @@
       <c r="AH70" s="4">
         <v>1</v>
       </c>
-      <c r="AK70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI70" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="AJ70" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK70" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL70" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="AM70" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="AN70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AO70" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AP70" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>0111</v>
+      </c>
+      <c r="AQ70" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>BFFFE077</v>
+      </c>
+      <c r="AU70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>49</v>
       </c>
@@ -8622,11 +10882,47 @@
       <c r="AH71" s="4">
         <v>0</v>
       </c>
-      <c r="AK71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI71" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ71" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="AK71" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="AL71" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="AM71" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1111</v>
+      </c>
+      <c r="AN71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="AO71" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>1111</v>
+      </c>
+      <c r="AP71" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ71" s="11" t="str">
+        <f t="shared" ref="AQ71:AQ85" si="9">BIN2HEX(AI71) &amp; BIN2HEX(AJ71) &amp; BIN2HEX(AK71) &amp; BIN2HEX(AL71) &amp; BIN2HEX(AM71) &amp; BIN2HEX(AN71) &amp; BIN2HEX(AO71) &amp; BIN2HEX(AP71)</f>
+        <v>1FFEFEFF</v>
+      </c>
+      <c r="AU71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>50</v>
       </c>
@@ -8726,11 +11022,47 @@
       <c r="AH72" s="4">
         <v>1</v>
       </c>
-      <c r="AK72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI72" s="11" t="str">
+        <f t="shared" ref="AI72:AI85" si="10">AH72&amp;AG72&amp;AF72&amp;AE72</f>
+        <v>1001</v>
+      </c>
+      <c r="AJ72" s="11" t="str">
+        <f t="shared" ref="AJ72:AJ85" si="11">AD72&amp;AC72&amp;AB72&amp;AA72</f>
+        <v>1111</v>
+      </c>
+      <c r="AK72" s="11" t="str">
+        <f t="shared" ref="AK72:AK85" si="12">Z72&amp;Y72&amp;X72&amp;W72</f>
+        <v>1111</v>
+      </c>
+      <c r="AL72" s="11" t="str">
+        <f t="shared" ref="AL72:AL85" si="13">V72&amp;U72&amp;T72&amp;S72</f>
+        <v>1111</v>
+      </c>
+      <c r="AM72" s="11" t="str">
+        <f t="shared" ref="AM72:AM85" si="14">R72&amp;Q72&amp;P72&amp;O72</f>
+        <v>1110</v>
+      </c>
+      <c r="AN72" s="11" t="str">
+        <f t="shared" ref="AN72:AN85" si="15">N72&amp;M72&amp;L72&amp;K72</f>
+        <v>0000</v>
+      </c>
+      <c r="AO72" s="11" t="str">
+        <f t="shared" ref="AO72:AO85" si="16">J72&amp;I72&amp;H72&amp;G72</f>
+        <v>0111</v>
+      </c>
+      <c r="AP72" s="11" t="str">
+        <f t="shared" ref="AP72:AP85" si="17">F72&amp;E72&amp;D72&amp;C72</f>
+        <v>0011</v>
+      </c>
+      <c r="AQ72" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>9FFFE073</v>
+      </c>
+      <c r="AU72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>51</v>
       </c>
@@ -8830,11 +11162,47 @@
       <c r="AH73" s="4">
         <v>0</v>
       </c>
-      <c r="AK73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI73" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ73" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK73" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL73" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM73" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>0111</v>
+      </c>
+      <c r="AN73" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0110</v>
+      </c>
+      <c r="AO73" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>1111</v>
+      </c>
+      <c r="AP73" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ73" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>1FFF76FF</v>
+      </c>
+      <c r="AU73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
@@ -8934,14 +11302,82 @@
       <c r="AH74" s="4">
         <v>1</v>
       </c>
-      <c r="AK74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI74" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ74" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1101</v>
+      </c>
+      <c r="AK74" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL74" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM74" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN74" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO74" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP74" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ74" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>FDFFE07F</v>
+      </c>
+      <c r="AU74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI75" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ75" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AK75" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AL75" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AM75" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AN75" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AO75" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AP75" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>42</v>
       </c>
@@ -9041,11 +11477,47 @@
       <c r="AH76" s="4">
         <v>1</v>
       </c>
-      <c r="AK76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI76" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ76" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>0111</v>
+      </c>
+      <c r="AK76" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1110</v>
+      </c>
+      <c r="AL76" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1010</v>
+      </c>
+      <c r="AM76" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>0110</v>
+      </c>
+      <c r="AN76" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO76" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP76" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ76" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>F7EA607E</v>
+      </c>
+      <c r="AU76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>48</v>
       </c>
@@ -9145,11 +11617,47 @@
       <c r="AH77" s="4">
         <v>1</v>
       </c>
-      <c r="AK77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI77" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1011</v>
+      </c>
+      <c r="AJ77" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK77" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL77" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM77" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN77" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO77" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP77" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>0111</v>
+      </c>
+      <c r="AQ77" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>BFFFE077</v>
+      </c>
+      <c r="AU77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>49</v>
       </c>
@@ -9249,11 +11757,47 @@
       <c r="AH78" s="4">
         <v>0</v>
       </c>
-      <c r="AK78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI78" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ78" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK78" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL78" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1110</v>
+      </c>
+      <c r="AM78" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1111</v>
+      </c>
+      <c r="AN78" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>1110</v>
+      </c>
+      <c r="AO78" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>1111</v>
+      </c>
+      <c r="AP78" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ78" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>1FFEFEFF</v>
+      </c>
+      <c r="AU78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>50</v>
       </c>
@@ -9353,11 +11897,47 @@
       <c r="AH79" s="4">
         <v>1</v>
       </c>
-      <c r="AK79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI79" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1001</v>
+      </c>
+      <c r="AJ79" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK79" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL79" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM79" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN79" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO79" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP79" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>0011</v>
+      </c>
+      <c r="AQ79" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>9FFFE073</v>
+      </c>
+      <c r="AU79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>51</v>
       </c>
@@ -9457,11 +12037,47 @@
       <c r="AH80" s="4">
         <v>0</v>
       </c>
-      <c r="AK80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI80" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ80" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK80" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL80" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM80" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>0111</v>
+      </c>
+      <c r="AN80" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0110</v>
+      </c>
+      <c r="AO80" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>1111</v>
+      </c>
+      <c r="AP80" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ80" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>1FFF76FF</v>
+      </c>
+      <c r="AU80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
@@ -9561,14 +12177,82 @@
       <c r="AH81" s="4">
         <v>1</v>
       </c>
-      <c r="AK81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI81" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ81" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1101</v>
+      </c>
+      <c r="AK81" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>0111</v>
+      </c>
+      <c r="AL81" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM81" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN81" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO81" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP81" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ81" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>FD7FE07F</v>
+      </c>
+      <c r="AU81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI82" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ82" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AK82" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AL82" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AM82" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AN82" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AO82" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AP82" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>73</v>
       </c>
@@ -9668,11 +12352,47 @@
       <c r="AH83" s="4">
         <v>0</v>
       </c>
-      <c r="AK83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI83" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ83" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK83" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL83" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM83" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN83" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0001</v>
+      </c>
+      <c r="AO83" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP83" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1110</v>
+      </c>
+      <c r="AQ83" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>1FFFE17E</v>
+      </c>
+      <c r="AU83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>213</v>
       </c>
@@ -9772,11 +12492,47 @@
       <c r="AH84" s="4">
         <v>1</v>
       </c>
-      <c r="AK84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AI84" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>1111</v>
+      </c>
+      <c r="AJ84" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK84" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL84" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM84" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN84" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO84" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0111</v>
+      </c>
+      <c r="AP84" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ84" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>FFFFE07F</v>
+      </c>
+      <c r="AU84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>75</v>
       </c>
@@ -9834,11 +12590,11 @@
       <c r="T85" s="4">
         <v>1</v>
       </c>
-      <c r="U85" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>194</v>
+      <c r="U85" s="4">
+        <v>1</v>
+      </c>
+      <c r="V85" s="4">
+        <v>1</v>
       </c>
       <c r="W85" s="4">
         <v>1</v>
@@ -9849,14 +12605,14 @@
       <c r="Y85" s="4">
         <v>1</v>
       </c>
-      <c r="Z85" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA85" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB85" s="4" t="s">
-        <v>194</v>
+      <c r="Z85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>1</v>
       </c>
       <c r="AC85" s="4">
         <v>1</v>
@@ -9876,7 +12632,43 @@
       <c r="AH85" s="4">
         <v>0</v>
       </c>
-      <c r="AK85" s="4">
+      <c r="AI85" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>0001</v>
+      </c>
+      <c r="AJ85" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v>1111</v>
+      </c>
+      <c r="AK85" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>1111</v>
+      </c>
+      <c r="AL85" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>1111</v>
+      </c>
+      <c r="AM85" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>1110</v>
+      </c>
+      <c r="AN85" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="AO85" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>0011</v>
+      </c>
+      <c r="AP85" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+      <c r="AQ85" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>1FFFE03F</v>
+      </c>
+      <c r="AU85" s="4">
         <v>0</v>
       </c>
     </row>

--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="0.指令系统定义" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="274">
   <si>
     <t>LD Ai, addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>pc-&gt;ab, m-&gt;db-&gt;ai, pc+1-&gt;pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =+1 and load/store?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -883,18 +879,6 @@
   </si>
   <si>
     <t>a&gt;&gt;1-&gt;a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if CF then pc = pc + 3 + rel8, else pc = pc + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if not ZF and not CF then pc = pc + 3 + rel8, else pc = pc + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if not ZF then pc = pc + 3 + rel8, else pc = pc + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -978,14 +962,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010100ii adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010110ii data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010111ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011000ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001ii data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011010ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001000 rel8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010000 adrh adrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==0&amp;xxx if iijj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==xxx if noii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==xxxxxx-1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101jjii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011011ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011100ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011101ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011110ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>00000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,7 +1102,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00100</t>
+    <t>00101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1002,10 +1110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,107 +1118,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010100ii adrh adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010110ii data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010111ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011000ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011001ii data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011010ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010100ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010101ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010110ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011001ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10110000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10100000 adrh adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101000 rel8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10110000 rel8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000 adrh adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001000 rel8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010000 adrh adrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>==0&amp;xxx if iijj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>==xxx if noii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>==xxxxxx-1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100jjii</t>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令条编号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not ZF and not CF then pc = pc + 2 + rel8, else pc = pc + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not ZF then pc = pc + 2 + rel8, else pc = pc + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if CF then pc = pc + 2 + rel8, else pc = pc + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1212,19 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1183,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,6 +1285,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1507,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,20 +1590,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1546,9 +1612,9 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1557,9 +1623,9 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1568,20 +1634,20 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1590,9 +1656,9 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1601,9 +1667,9 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1612,7 +1678,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
@@ -1623,24 +1689,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,7 +1722,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -1667,7 +1733,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>11</v>
@@ -1678,9 +1744,9 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1689,9 +1755,9 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1700,9 +1766,9 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1711,262 +1777,289 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>220</v>
-      </c>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>226</v>
+        <v>268</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>10000</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="12">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>10001</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="12">
-        <v>10001000</v>
+      <c r="C35" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>10001</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="12">
+        <v>10001000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>10010</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C38" s="12">
         <v>10010000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>10011</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="13">
-        <v>10011000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>10100</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>10101</v>
+        <v>10011</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>254</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="13">
+        <v>10011000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
+        <v>10100</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>10101</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>10110</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>262</v>
+      <c r="C42" s="13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>264</v>
-      </c>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1978,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F81"/>
+  <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2028,9 +2121,7 @@
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
@@ -2039,7 +2130,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -2055,12 +2146,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -2068,12 +2159,12 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -2081,12 +2172,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -2094,12 +2185,12 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -2117,7 +2208,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -2125,32 +2216,32 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
@@ -2168,17 +2259,17 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2186,22 +2277,22 @@
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -2209,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -2217,12 +2308,12 @@
         <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -2230,17 +2321,17 @@
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -2248,12 +2339,12 @@
         <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
@@ -2266,17 +2357,17 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
@@ -2284,32 +2375,32 @@
         <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
@@ -2317,32 +2408,32 @@
         <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
@@ -2350,17 +2441,22 @@
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="1" t="s">
-        <v>75</v>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2389,51 +2485,51 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2441,13 +2537,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2455,205 +2551,205 @@
     </row>
     <row r="8" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>136</v>
+      <c r="C13" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="5" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="5" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2661,13 +2757,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2675,320 +2771,320 @@
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="5" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="3" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E37" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="D40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
+      <c r="C45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="15"/>
+      <c r="C58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="14"/>
-      <c r="C58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="14" t="s">
+      <c r="E60" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="3" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="3" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="3" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E65" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="15"/>
+      <c r="C68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="14"/>
-      <c r="C68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -2996,11 +3092,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C16:C23"/>
@@ -3015,6 +3106,11 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3026,40 +3122,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI11" sqref="AI10:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="3"/>
     <col min="2" max="2" width="51.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="34" width="2.125" style="3" customWidth="1"/>
     <col min="35" max="35" width="5.5" style="8" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5.75" style="11" bestFit="1" customWidth="1"/>
     <col min="37" max="42" width="5.5" style="11" bestFit="1" customWidth="1"/>
@@ -3072,109 +3146,109 @@
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="AU1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -3279,7 +3353,7 @@
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -3303,61 +3377,61 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="V3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="AB3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC3" s="4">
         <v>0</v>
@@ -3369,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
@@ -3404,79 +3478,79 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU4" s="3">
         <v>1</v>
@@ -3763,7 +3837,7 @@
         <v>1111</v>
       </c>
       <c r="AQ8" s="11" t="str">
-        <f t="shared" ref="AQ7:AQ70" si="8">BIN2HEX(AI8) &amp; BIN2HEX(AJ8) &amp; BIN2HEX(AK8) &amp; BIN2HEX(AL8) &amp; BIN2HEX(AM8) &amp; BIN2HEX(AN8) &amp; BIN2HEX(AO8) &amp; BIN2HEX(AP8)</f>
+        <f t="shared" ref="AQ8:AQ70" si="8">BIN2HEX(AI8) &amp; BIN2HEX(AJ8) &amp; BIN2HEX(AK8) &amp; BIN2HEX(AL8) &amp; BIN2HEX(AM8) &amp; BIN2HEX(AN8) &amp; BIN2HEX(AO8) &amp; BIN2HEX(AP8)</f>
         <v>F7EB607F</v>
       </c>
       <c r="AU8" s="4">
@@ -4367,7 +4441,7 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4717,7 +4791,7 @@
     </row>
     <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4857,7 +4931,7 @@
     </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -5036,7 +5110,7 @@
     </row>
     <row r="21" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -5179,7 +5253,7 @@
     </row>
     <row r="22" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -5357,7 +5431,7 @@
     </row>
     <row r="24" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -5497,7 +5571,7 @@
     </row>
     <row r="25" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -5672,7 +5746,7 @@
     </row>
     <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -5812,7 +5886,7 @@
     </row>
     <row r="28" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -6267,7 +6341,7 @@
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -6442,7 +6516,7 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -6582,7 +6656,7 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -6722,7 +6796,7 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -6862,7 +6936,7 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -7002,7 +7076,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -7142,7 +7216,7 @@
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -7599,7 +7673,7 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -7739,7 +7813,7 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -7879,7 +7953,7 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -8054,7 +8128,7 @@
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -8194,7 +8268,7 @@
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -8334,7 +8408,7 @@
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -8474,7 +8548,7 @@
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -8649,7 +8723,7 @@
     </row>
     <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -8824,7 +8898,7 @@
     </row>
     <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -8964,7 +9038,7 @@
     </row>
     <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -9139,7 +9213,7 @@
     </row>
     <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -9279,7 +9353,7 @@
     </row>
     <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -9419,7 +9493,7 @@
     </row>
     <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -9594,7 +9668,7 @@
     </row>
     <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -9734,7 +9808,7 @@
     </row>
     <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -10049,7 +10123,7 @@
     </row>
     <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -10189,7 +10263,7 @@
     </row>
     <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -10329,7 +10403,7 @@
     </row>
     <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -10504,7 +10578,7 @@
     </row>
     <row r="69" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -10644,7 +10718,7 @@
     </row>
     <row r="70" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -10784,7 +10858,7 @@
     </row>
     <row r="71" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -10924,7 +10998,7 @@
     </row>
     <row r="72" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -11064,7 +11138,7 @@
     </row>
     <row r="73" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -11204,7 +11278,7 @@
     </row>
     <row r="74" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -11379,7 +11453,7 @@
     </row>
     <row r="76" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -11519,7 +11593,7 @@
     </row>
     <row r="77" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -11659,7 +11733,7 @@
     </row>
     <row r="78" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -11799,7 +11873,7 @@
     </row>
     <row r="79" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -11939,7 +12013,7 @@
     </row>
     <row r="80" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -12079,7 +12153,7 @@
     </row>
     <row r="81" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -12254,7 +12328,7 @@
     </row>
     <row r="83" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -12394,7 +12468,7 @@
     </row>
     <row r="84" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -12534,7 +12608,7 @@
     </row>
     <row r="85" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
